--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1281337.703095321</v>
+        <v>-1284197.53533059</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.82517431440853</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>49.06695297946817</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663201</v>
+        <v>101.0781352263078</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.35396867246094</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>33.92282868573459</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.21594625443454</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>223.9512528641461</v>
+        <v>174.9024957203318</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42254329489923</v>
+        <v>12.42254329489922</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.978013057777</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724369</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4877993650491</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1152373702176</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.6612299361375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8024773971665</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075475</v>
+        <v>97.35224439075472</v>
       </c>
       <c r="I6" t="n">
-        <v>46.46465121295532</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.99985954238373</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0590333442028</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>42.87903666952211</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>79.47880163394655</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>122.6812911966024</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5978353037443</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.901945521212167</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>201.3716456728982</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1.886608069872558</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>192.5430376096699</v>
+        <v>89.27251853993535</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>146.8979207926124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>64.61308161675213</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187855</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>60.64713141731568</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>69.82863813027184</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>120.6889225686112</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327289</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>185.4048731212358</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>282.8547581679341</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="23">
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="G25" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545292</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652689</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,19 +3430,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652687</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.5258219170696</v>
+        <v>380.7231149185207</v>
       </c>
       <c r="C2" t="n">
-        <v>527.5258219170696</v>
+        <v>380.7231149185207</v>
       </c>
       <c r="D2" t="n">
-        <v>527.5258219170696</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="E2" t="n">
-        <v>338.1060369005846</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513812</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513812</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
@@ -4328,52 +4328,52 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058979</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652803</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652803</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652803</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652803</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652803</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652803</v>
+        <v>482.8222414097407</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487954</v>
+        <v>380.7231149185207</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487954</v>
+        <v>380.7231149185207</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>635.1661220986903</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="C3" t="n">
-        <v>460.7130928175632</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="D3" t="n">
-        <v>311.778683156312</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E3" t="n">
-        <v>152.5412281508565</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
         <v>15.0020469733056</v>
@@ -4410,49 +4410,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
         <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264286</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264286</v>
+        <v>525.6547321810244</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264286</v>
+        <v>525.6547321810244</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264286</v>
+        <v>525.6547321810244</v>
       </c>
       <c r="V3" t="n">
-        <v>676.9378076264286</v>
+        <v>525.6547321810244</v>
       </c>
       <c r="W3" t="n">
-        <v>676.9378076264286</v>
+        <v>525.6547321810244</v>
       </c>
       <c r="X3" t="n">
-        <v>676.9378076264286</v>
+        <v>525.6547321810244</v>
       </c>
       <c r="Y3" t="n">
-        <v>676.9378076264286</v>
+        <v>491.3892486600804</v>
       </c>
     </row>
     <row r="4">
@@ -4492,46 +4492,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.0396705623018</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170722</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396344</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>269.374308656553</v>
+        <v>1276.993164825147</v>
       </c>
       <c r="C5" t="n">
-        <v>269.374308656553</v>
+        <v>1276.993164825147</v>
       </c>
       <c r="D5" t="n">
-        <v>269.374308656553</v>
+        <v>918.7274662183961</v>
       </c>
       <c r="E5" t="n">
-        <v>269.374308656553</v>
+        <v>532.9392136201518</v>
       </c>
       <c r="F5" t="n">
-        <v>43.16092192509225</v>
+        <v>356.270026023857</v>
       </c>
       <c r="G5" t="n">
-        <v>30.612898394891</v>
+        <v>343.7220024936558</v>
       </c>
       <c r="H5" t="n">
-        <v>30.612898394891</v>
+        <v>30.61289839489117</v>
       </c>
       <c r="I5" t="n">
-        <v>30.612898394891</v>
+        <v>30.61289839489117</v>
       </c>
       <c r="J5" t="n">
-        <v>93.38580827121416</v>
+        <v>93.38580827121484</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235827</v>
+        <v>238.2046462235843</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190611</v>
+        <v>454.7669823190639</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643042</v>
+        <v>727.4037457643083</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453885</v>
+        <v>1009.065865453891</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831926</v>
+        <v>1261.696156831933</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855769</v>
+        <v>1442.809264855777</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.64491974455</v>
+        <v>1530.644919744558</v>
       </c>
       <c r="R5" t="n">
-        <v>1495.632255474607</v>
+        <v>1530.644919744558</v>
       </c>
       <c r="S5" t="n">
-        <v>1495.632255474607</v>
+        <v>1530.644919744558</v>
       </c>
       <c r="T5" t="n">
-        <v>1283.018316722032</v>
+        <v>1530.644919744558</v>
       </c>
       <c r="U5" t="n">
-        <v>1029.36656180262</v>
+        <v>1276.993164825147</v>
       </c>
       <c r="V5" t="n">
-        <v>1029.36656180262</v>
+        <v>1276.993164825147</v>
       </c>
       <c r="W5" t="n">
-        <v>1029.36656180262</v>
+        <v>1276.993164825147</v>
       </c>
       <c r="X5" t="n">
-        <v>655.9008035415404</v>
+        <v>1276.993164825147</v>
       </c>
       <c r="Y5" t="n">
-        <v>269.374308656553</v>
+        <v>1276.993164825147</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>795.6816034547213</v>
+        <v>424.4174664239592</v>
       </c>
       <c r="C6" t="n">
-        <v>621.2285741735943</v>
+        <v>424.4174664239592</v>
       </c>
       <c r="D6" t="n">
-        <v>472.2941645123431</v>
+        <v>275.483056762708</v>
       </c>
       <c r="E6" t="n">
-        <v>313.0567095068876</v>
+        <v>275.483056762708</v>
       </c>
       <c r="F6" t="n">
-        <v>313.0567095068876</v>
+        <v>128.9484987895929</v>
       </c>
       <c r="G6" t="n">
-        <v>175.8824899137901</v>
+        <v>128.9484987895929</v>
       </c>
       <c r="H6" t="n">
-        <v>77.5468895190883</v>
+        <v>30.61289839489117</v>
       </c>
       <c r="I6" t="n">
-        <v>30.612898394891</v>
+        <v>30.61289839489117</v>
       </c>
       <c r="J6" t="n">
-        <v>49.1821665227524</v>
+        <v>49.18216652275293</v>
       </c>
       <c r="K6" t="n">
-        <v>159.0748281477036</v>
+        <v>159.0748281477047</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543696</v>
+        <v>353.1616144543716</v>
       </c>
       <c r="M6" t="n">
-        <v>599.0086077642204</v>
+        <v>599.0086077642235</v>
       </c>
       <c r="N6" t="n">
-        <v>865.7710843621704</v>
+        <v>865.7710843621745</v>
       </c>
       <c r="O6" t="n">
-        <v>1087.58683897054</v>
+        <v>1087.586838970545</v>
       </c>
       <c r="P6" t="n">
-        <v>1246.280471422844</v>
+        <v>1246.280471422849</v>
       </c>
       <c r="Q6" t="n">
-        <v>1302.443765680481</v>
+        <v>1302.443765680487</v>
       </c>
       <c r="R6" t="n">
-        <v>1251.93885705181</v>
+        <v>1302.443765680487</v>
       </c>
       <c r="S6" t="n">
-        <v>1251.93885705181</v>
+        <v>1157.939691595433</v>
       </c>
       <c r="T6" t="n">
-        <v>1251.93885705181</v>
+        <v>1114.627533343391</v>
       </c>
       <c r="U6" t="n">
-        <v>1251.93885705181</v>
+        <v>886.5063233576936</v>
       </c>
       <c r="V6" t="n">
-        <v>1251.93885705181</v>
+        <v>886.5063233576936</v>
       </c>
       <c r="W6" t="n">
-        <v>1251.93885705181</v>
+        <v>632.2689666294921</v>
       </c>
       <c r="X6" t="n">
-        <v>1171.657239239743</v>
+        <v>424.4174664239592</v>
       </c>
       <c r="Y6" t="n">
-        <v>963.8969404747893</v>
+        <v>424.4174664239592</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302.4464881354656</v>
+        <v>302.4464881354685</v>
       </c>
       <c r="C7" t="n">
-        <v>302.4464881354656</v>
+        <v>302.4464881354685</v>
       </c>
       <c r="D7" t="n">
-        <v>152.3298487231299</v>
+        <v>302.4464881354685</v>
       </c>
       <c r="E7" t="n">
-        <v>152.3298487231299</v>
+        <v>154.5333945530754</v>
       </c>
       <c r="F7" t="n">
-        <v>152.3298487231299</v>
+        <v>154.5333945530754</v>
       </c>
       <c r="G7" t="n">
-        <v>152.3298487231299</v>
+        <v>154.5333945530754</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3298487231299</v>
+        <v>30.61289839489117</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55425750722652</v>
+        <v>30.61289839489117</v>
       </c>
       <c r="J7" t="n">
-        <v>30.612898394891</v>
+        <v>30.61289839489117</v>
       </c>
       <c r="K7" t="n">
-        <v>51.49054881713191</v>
+        <v>51.49054881713248</v>
       </c>
       <c r="L7" t="n">
-        <v>108.1125511363473</v>
+        <v>108.1125511363483</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055967</v>
+        <v>171.0707966055983</v>
       </c>
       <c r="N7" t="n">
-        <v>240.3895616221332</v>
+        <v>240.3895616221352</v>
       </c>
       <c r="O7" t="n">
-        <v>284.1035717645219</v>
+        <v>284.1035717645244</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354656</v>
+        <v>302.4464881354685</v>
       </c>
       <c r="Q7" t="n">
-        <v>302.4464881354656</v>
+        <v>302.4464881354685</v>
       </c>
       <c r="R7" t="n">
-        <v>302.4464881354656</v>
+        <v>302.4464881354685</v>
       </c>
       <c r="S7" t="n">
-        <v>302.4464881354656</v>
+        <v>302.4464881354685</v>
       </c>
       <c r="T7" t="n">
-        <v>302.4464881354656</v>
+        <v>302.4464881354685</v>
       </c>
       <c r="U7" t="n">
-        <v>302.4464881354656</v>
+        <v>302.4464881354685</v>
       </c>
       <c r="V7" t="n">
-        <v>302.4464881354656</v>
+        <v>302.4464881354685</v>
       </c>
       <c r="W7" t="n">
-        <v>302.4464881354656</v>
+        <v>302.4464881354685</v>
       </c>
       <c r="X7" t="n">
-        <v>302.4464881354656</v>
+        <v>302.4464881354685</v>
       </c>
       <c r="Y7" t="n">
-        <v>302.4464881354656</v>
+        <v>302.4464881354685</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1073.79184932419</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="C8" t="n">
-        <v>1073.79184932419</v>
+        <v>1115.665767350556</v>
       </c>
       <c r="D8" t="n">
-        <v>1073.79184932419</v>
+        <v>757.4000687438058</v>
       </c>
       <c r="E8" t="n">
-        <v>1073.79184932419</v>
+        <v>371.6118161455616</v>
       </c>
       <c r="F8" t="n">
-        <v>662.805944534583</v>
+        <v>364.6663153963581</v>
       </c>
       <c r="G8" t="n">
-        <v>246.7748992379902</v>
+        <v>352.6756741401695</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>45.27486125513605</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
@@ -4805,7 +4805,7 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
         <v>669.5878927711865</v>
@@ -4814,7 +4814,7 @@
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4841,13 +4841,13 @@
         <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.396939561082</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.931181300002</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="Y8" t="n">
-        <v>1073.79184932419</v>
+        <v>1484.628284290968</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5261380428188</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0731087616919</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1386991004406</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9012440949851</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3666861218701</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
         <v>1166.88538687358</v>
@@ -4899,34 +4899,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835204</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>1432.55206530918</v>
       </c>
       <c r="U9" t="n">
-        <v>1571.739130556042</v>
+        <v>1342.37780415773</v>
       </c>
       <c r="V9" t="n">
-        <v>1571.739130556042</v>
+        <v>1342.37780415773</v>
       </c>
       <c r="W9" t="n">
-        <v>1317.501773827841</v>
+        <v>1088.140447429529</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.501773827841</v>
+        <v>880.2889472239958</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.741475062887</v>
+        <v>672.5286484590418</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>338.6408822103593</v>
+        <v>273.8625692440755</v>
       </c>
       <c r="C10" t="n">
-        <v>338.6408822103593</v>
+        <v>273.8625692440755</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2591440360034</v>
+        <v>273.8625692440755</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>273.8625692440755</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>126.9726217461652</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514519</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514519</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514519</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>273.8625692440755</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>273.8625692440755</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>273.8625692440755</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>273.8625692440755</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>273.8625692440755</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>273.8625692440755</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925262</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101331</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>296.7882229101331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038384</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797786</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603206</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947404</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741517</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704556</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806539</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630086</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>641.8461362382112</v>
+        <v>945.4026036630036</v>
       </c>
       <c r="C16" t="n">
-        <v>472.9099533103043</v>
+        <v>776.4664207350967</v>
       </c>
       <c r="D16" t="n">
-        <v>322.7933138979686</v>
+        <v>626.3497813227609</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>478.4366877403678</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>331.5467402424574</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>164.3506409573374</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2325.055080985707</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2105.453616008648</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1816.378389352846</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1561.693901146959</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1272.276731109998</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1044.287180211981</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>823.4946010684509</v>
+        <v>945.4026036630036</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,10 +5540,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5780,7 +5780,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
         <v>484.8112968429803</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6078,7 +6078,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6312,10 +6312,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6464,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580124</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345486</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384031</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580124</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345486</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384031</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7391,67 +7391,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,34 +7582,34 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7810,7 +7810,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>349.9086673490721</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>305.6160886412148</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399022</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>144.3415636815764</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
-        <v>182.205513512149</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>104.8770068749532</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>70.46607471595205</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>60.33736343303335</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>3.329716221310093</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="23">
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>31.77834493961092</v>
       </c>
       <c r="G25" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2.415845301584341e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-9.683365348466374e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26320,13 +26320,13 @@
         <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="F2" t="n">
         <v>181607.9849302513</v>
       </c>
       <c r="G2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="H2" t="n">
         <v>181607.9849302513</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208455</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996489</v>
+        <v>216004.0468996513</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.511296063</v>
+        <v>167084.5112960607</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.2075742651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854468</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838236</v>
+        <v>50221.67010838294</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064615</v>
+        <v>59784.02116064562</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515981</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196327.1528969922</v>
+        <v>196327.1528969923</v>
       </c>
       <c r="C4" t="n">
-        <v>221112.0537468121</v>
+        <v>221112.0537468115</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26430,34 +26430,34 @@
         <v>15436.64000687972</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.6400068797</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687968</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>23427.49926997319</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997315</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997317</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="O4" t="n">
-        <v>23427.49926997311</v>
+        <v>23427.49926997315</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997315</v>
+        <v>23427.49926997313</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790097</v>
+        <v>72511.97598790113</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-692342.9290245617</v>
+        <v>-692703.0120402791</v>
       </c>
       <c r="C6" t="n">
-        <v>-324893.6784148983</v>
+        <v>-324893.6784149002</v>
       </c>
       <c r="D6" t="n">
-        <v>-241752.1850213691</v>
+        <v>-241752.1850213669</v>
       </c>
       <c r="E6" t="n">
-        <v>-536394.3924748007</v>
+        <v>-536429.1304002361</v>
       </c>
       <c r="F6" t="n">
-        <v>65048.81509946451</v>
+        <v>65014.07717402883</v>
       </c>
       <c r="G6" t="n">
-        <v>65048.81509946457</v>
+        <v>65014.07717402863</v>
       </c>
       <c r="H6" t="n">
-        <v>65048.81509946451</v>
+        <v>65014.07717402896</v>
       </c>
       <c r="I6" t="n">
-        <v>65048.81509946457</v>
+        <v>65014.07717402893</v>
       </c>
       <c r="J6" t="n">
-        <v>15983.87037091986</v>
+        <v>15949.13244548414</v>
       </c>
       <c r="K6" t="n">
-        <v>14827.14499108215</v>
+        <v>14792.40706564588</v>
       </c>
       <c r="L6" t="n">
-        <v>-1641.238065071127</v>
+        <v>-1641.238065070531</v>
       </c>
       <c r="M6" t="n">
-        <v>-99003.59745602304</v>
+        <v>-99003.59745602291</v>
       </c>
       <c r="N6" t="n">
+        <v>58142.78309557511</v>
+      </c>
+      <c r="O6" t="n">
         <v>58142.78309557505</v>
       </c>
-      <c r="O6" t="n">
-        <v>58142.7830955751</v>
-      </c>
       <c r="P6" t="n">
-        <v>58142.78309557505</v>
+        <v>58142.78309557508</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26738,10 +26738,10 @@
         <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836606</v>
+        <v>716.4483122836624</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361375</v>
+        <v>382.6612299361396</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707559</v>
+        <v>167.9783713707577</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540235</v>
+        <v>137.2623522540216</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039895</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698174</v>
+        <v>195.1356427698196</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900257</v>
+        <v>159.4537267900236</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698174</v>
+        <v>195.1356427698196</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900255</v>
+        <v>159.4537267900237</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698174</v>
+        <v>195.1356427698196</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900257</v>
+        <v>159.4537267900236</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>69.10231737463036</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>268.6529654521612</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.1792149774064</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920012</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>171.7598670915698</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.6160339275028</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821565</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>182.9247928775653</v>
+        <v>231.9735500213796</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.978013057777</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476439</v>
+        <v>99.4372018947641</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>34.66253762724321</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926215</v>
+        <v>143.3876437926214</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.487799365049</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.576708719916098</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>46.46465121295518</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.99985954238349</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0590333442029</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9532570062491</v>
+        <v>151.074220336727</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399978858403</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>126.2941835695309</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>166.6990233854882</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7405094023015</v>
+        <v>28.05921820569911</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5978353037443</v>
       </c>
       <c r="J7" t="n">
-        <v>31.7521886291671</v>
+        <v>35.65413415037904</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.3213064746131</v>
+        <v>43.32130647461283</v>
       </c>
       <c r="R7" t="n">
-        <v>119.2023528106943</v>
+        <v>119.2023528106942</v>
       </c>
       <c r="S7" t="n">
-        <v>201.5013289443858</v>
+        <v>201.5013289443857</v>
       </c>
       <c r="T7" t="n">
         <v>222.4254139074074</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>102.9551590832849</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>76.27699850721046</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696039</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>33.27753635839869</v>
+        <v>136.5480554281332</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>1.717552225600002</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>101.8384194941797</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
@@ -28062,7 +28062,7 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>4.111025083571365e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.262637057073805e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-7.660846363407852e-13</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235819</v>
+        <v>2.880194220235826</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799009</v>
+        <v>29.49678905799017</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756415</v>
+        <v>111.0386876756418</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997401</v>
+        <v>244.4528841997407</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423224</v>
+        <v>366.3715055423233</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098644</v>
+        <v>454.5162494098656</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739832</v>
+        <v>505.7369033739844</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022282</v>
+        <v>513.9202552022296</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247582</v>
+        <v>485.2803239247595</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126864</v>
+        <v>414.1755291126875</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.028573600491</v>
+        <v>311.0285736004918</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868884</v>
+        <v>180.9230001868889</v>
       </c>
       <c r="S5" t="n">
-        <v>65.6324257936238</v>
+        <v>65.63242579362397</v>
       </c>
       <c r="T5" t="n">
-        <v>12.6080501990823</v>
+        <v>12.60805019908234</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188655</v>
+        <v>0.2304155376188661</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.5410397660441</v>
+        <v>1.541039766044104</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574171</v>
+        <v>14.88319984574174</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704468</v>
+        <v>53.05772878704482</v>
       </c>
       <c r="J6" t="n">
-        <v>145.594463159456</v>
+        <v>145.5944631594564</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844107</v>
+        <v>248.8441274844113</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754964</v>
+        <v>334.6016386754973</v>
       </c>
       <c r="M6" t="n">
-        <v>390.464330194595</v>
+        <v>390.464330194596</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519697</v>
+        <v>400.7987591519707</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306767</v>
+        <v>366.6525622306777</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510002</v>
+        <v>294.2710058510009</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.712374346261</v>
+        <v>196.7123743462614</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158022</v>
+        <v>95.67964442158046</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963491</v>
+        <v>28.62413775963498</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572489</v>
+        <v>6.211471688572505</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344803</v>
+        <v>0.1013841951344806</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970535</v>
+        <v>1.291955972970539</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513804</v>
+        <v>11.48666310513807</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351393</v>
+        <v>38.85263962351403</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901685</v>
+        <v>91.34128728901707</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1017939505767</v>
+        <v>150.1017939505771</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178195</v>
+        <v>192.0786180178199</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902813</v>
+        <v>202.5199712902818</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273913</v>
+        <v>197.7044990273917</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522354</v>
+        <v>182.6121042522358</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036363</v>
+        <v>156.2562024036367</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548327</v>
+        <v>108.183695154833</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647515</v>
+        <v>58.0910385664753</v>
       </c>
       <c r="S7" t="n">
-        <v>22.5152690925865</v>
+        <v>22.51526909258656</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874104</v>
+        <v>5.520175520874118</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839292</v>
+        <v>0.0704703257983931</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31528,10 +31528,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
         <v>612.3808166839008</v>
@@ -31540,22 +31540,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076062</v>
@@ -31607,19 +31607,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
         <v>234.3999545349506</v>
@@ -31628,10 +31628,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
         <v>0.1208081129062761</v>
@@ -31677,22 +31677,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595396</v>
@@ -31704,13 +31704,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
         <v>0.08397154077419852</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990647</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32798,10 +32798,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,13 +33983,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>373.3554713800157</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460039</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.4069796730538</v>
+        <v>63.40697967305442</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973418</v>
+        <v>146.2816544973427</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398772</v>
+        <v>218.7498344398783</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467105</v>
+        <v>275.3906701467117</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056373</v>
+        <v>284.5071916056386</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030715</v>
+        <v>255.1821125030728</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574169</v>
+        <v>182.9425333574179</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604154</v>
+        <v>88.72288372604234</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278929</v>
+        <v>18.75683649278966</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100517</v>
+        <v>111.0026885100523</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956222</v>
+        <v>196.0472588956231</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725767</v>
+        <v>248.3302962725776</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686364</v>
+        <v>269.4570470686374</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862323</v>
+        <v>224.0563177862333</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366699</v>
+        <v>160.2965984366706</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026023944</v>
+        <v>56.73060026023992</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.08853578004133</v>
+        <v>21.08853578004172</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658117</v>
+        <v>57.19394173658165</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267621</v>
+        <v>63.59418734267672</v>
       </c>
       <c r="N7" t="n">
-        <v>70.01895456215806</v>
+        <v>70.01895456215854</v>
       </c>
       <c r="O7" t="n">
-        <v>44.15556580039259</v>
+        <v>44.15556580039305</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448869</v>
+        <v>18.52819835448909</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
         <v>382.9677530873099</v>
@@ -35188,7 +35188,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
         <v>148.31198861839</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
         <v>158.6780472169987</v>
@@ -35258,7 +35258,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319509</v>
@@ -35270,7 +35270,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
         <v>48.46489236084162</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770464</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096391</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899107</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36446,10 +36446,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998997</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,13 +37631,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>242.0137592966824</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243171</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
